--- a/datatest/NBC.xlsx
+++ b/datatest/NBC.xlsx
@@ -3540,7 +3540,7 @@
   <dimension ref="A1:N446"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
